--- a/docs/userguide/docs/ExampleOM/MyOM.xlsx
+++ b/docs/userguide/docs/ExampleOM/MyOM.xlsx
@@ -971,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0000134</v>
+        <v>1.34e-05</v>
       </c>
     </row>
     <row r="30">

--- a/docs/userguide/docs/ExampleOM/MyOM.xlsx
+++ b/docs/userguide/docs/ExampleOM/MyOM.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
@@ -12,334 +11,326 @@
     <sheet name="Imp" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="OM" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
-  <si>
-    <t xml:space="preserve">Slot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Msd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mgrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amplitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LenCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ksd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kgrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linfsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linfgrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L50_95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size_area_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frac_area_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob_staying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fdisc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nyears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spat_targ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EffYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EffLower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EffUpper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qcv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmaxlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isRel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rmaxlen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SelYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AbsSelYears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L5Upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFSLower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFSUpper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VmaxLower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VmaxUpper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CurrentYr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAA_nsamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAA_ESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL_nsamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL_ESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Btobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Btbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LenMbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t0biascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linfbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFCbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFSbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMSYbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMSY_Mbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMSY_B0biascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irefbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brefbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crefbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recbiascv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACFrac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAEFrac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAESD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SizeLimFrac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SizeLimSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sponsor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proyears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pstar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defaults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Common_Name</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>maxage</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Mexp</t>
+  </si>
+  <si>
+    <t>Msd</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>SRrel</t>
+  </si>
+  <si>
+    <t>Perr</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Linf</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>LenCV</t>
+  </si>
+  <si>
+    <t>Ksd</t>
+  </si>
+  <si>
+    <t>Linfsd</t>
+  </si>
+  <si>
+    <t>L50</t>
+  </si>
+  <si>
+    <t>L50_95</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Size_area_1</t>
+  </si>
+  <si>
+    <t>Frac_area_1</t>
+  </si>
+  <si>
+    <t>Prob_staying</t>
+  </si>
+  <si>
+    <t>Fdisc</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>nyears</t>
+  </si>
+  <si>
+    <t>Spat_targ</t>
+  </si>
+  <si>
+    <t>EffYears</t>
+  </si>
+  <si>
+    <t>EffLower</t>
+  </si>
+  <si>
+    <t>EffUpper</t>
+  </si>
+  <si>
+    <t>Esd</t>
+  </si>
+  <si>
+    <t>qinc</t>
+  </si>
+  <si>
+    <t>qcv</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>LFS</t>
+  </si>
+  <si>
+    <t>Vmaxlen</t>
+  </si>
+  <si>
+    <t>isRel</t>
+  </si>
+  <si>
+    <t>LR5</t>
+  </si>
+  <si>
+    <t>LFR</t>
+  </si>
+  <si>
+    <t>Rmaxlen</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>SelYears</t>
+  </si>
+  <si>
+    <t>AbsSelYears</t>
+  </si>
+  <si>
+    <t>L5Lower</t>
+  </si>
+  <si>
+    <t>L5Upper</t>
+  </si>
+  <si>
+    <t>LFSLower</t>
+  </si>
+  <si>
+    <t>LFSUpper</t>
+  </si>
+  <si>
+    <t>VmaxLower</t>
+  </si>
+  <si>
+    <t>VmaxUpper</t>
+  </si>
+  <si>
+    <t>CurrentYr</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>Cobs</t>
+  </si>
+  <si>
+    <t>Cbiascv</t>
+  </si>
+  <si>
+    <t>CAA_nsamp</t>
+  </si>
+  <si>
+    <t>CAA_ESS</t>
+  </si>
+  <si>
+    <t>CAL_nsamp</t>
+  </si>
+  <si>
+    <t>CAL_ESS</t>
+  </si>
+  <si>
+    <t>Iobs</t>
+  </si>
+  <si>
+    <t>Ibiascv</t>
+  </si>
+  <si>
+    <t>Btobs</t>
+  </si>
+  <si>
+    <t>Btbiascv</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>LenMbiascv</t>
+  </si>
+  <si>
+    <t>Mbiascv</t>
+  </si>
+  <si>
+    <t>Kbiascv</t>
+  </si>
+  <si>
+    <t>t0biascv</t>
+  </si>
+  <si>
+    <t>Linfbiascv</t>
+  </si>
+  <si>
+    <t>LFCbiascv</t>
+  </si>
+  <si>
+    <t>LFSbiascv</t>
+  </si>
+  <si>
+    <t>FMSYbiascv</t>
+  </si>
+  <si>
+    <t>FMSY_Mbiascv</t>
+  </si>
+  <si>
+    <t>BMSY_B0biascv</t>
+  </si>
+  <si>
+    <t>Irefbiascv</t>
+  </si>
+  <si>
+    <t>Brefbiascv</t>
+  </si>
+  <si>
+    <t>Crefbiascv</t>
+  </si>
+  <si>
+    <t>Dbiascv</t>
+  </si>
+  <si>
+    <t>Dobs</t>
+  </si>
+  <si>
+    <t>hbiascv</t>
+  </si>
+  <si>
+    <t>Recbiascv</t>
+  </si>
+  <si>
+    <t>TACFrac</t>
+  </si>
+  <si>
+    <t>TACSD</t>
+  </si>
+  <si>
+    <t>TAEFrac</t>
+  </si>
+  <si>
+    <t>TAESD</t>
+  </si>
+  <si>
+    <t>SizeLimFrac</t>
+  </si>
+  <si>
+    <t>SizeLimSD</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>nsim</t>
+  </si>
+  <si>
+    <t>proyears</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>pstar</t>
+  </si>
+  <si>
+    <t>maxF</t>
+  </si>
+  <si>
+    <t>reps</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>OMName</t>
   </si>
   <si>
     <t xml:space="preserve">Albacore</t>
@@ -377,6 +368,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -412,6 +404,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -696,11 +696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -713,20 +715,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -759,14 +759,11 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -784,10 +781,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.25</v>
+        <v>0.65</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +792,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +800,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -814,46 +811,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
+      <c r="B17" t="n">
+        <v>121</v>
+      </c>
+      <c r="C17" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>121</v>
+        <v>0.16</v>
       </c>
       <c r="C18" t="n">
-        <v>135</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
@@ -861,10 +854,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.16</v>
+        <v>-1.86</v>
       </c>
       <c r="C19" t="n">
-        <v>0.22</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="20">
@@ -872,10 +865,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.86</v>
+        <v>0.08</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.41</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
@@ -883,10 +876,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="22">
@@ -905,10 +898,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.25</v>
+        <v>81</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -916,10 +909,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>0.025</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -927,10 +920,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.25</v>
+        <v>0.05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
@@ -938,10 +931,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>81</v>
-      </c>
-      <c r="C26" t="n">
-        <v>91</v>
+        <v>0.0000134</v>
       </c>
     </row>
     <row r="27">
@@ -949,10 +939,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
-      </c>
-      <c r="C27" t="n">
-        <v>13</v>
+        <v>3.1066</v>
       </c>
     </row>
     <row r="28">
@@ -960,10 +947,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="29">
@@ -971,7 +958,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1.34e-05</v>
+        <v>0.095</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.105</v>
       </c>
     </row>
     <row r="30">
@@ -979,60 +969,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>3.1066</v>
+        <v>0.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.105</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
+      <c r="B32" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1040,11 +998,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1057,12 +1015,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
         <v>50</v>
@@ -1070,7 +1028,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1081,7 +1039,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -1098,7 +1056,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1115,7 +1073,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1132,7 +1090,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
         <v>0.1</v>
@@ -1143,7 +1101,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="n">
         <v>-2</v>
@@ -1154,7 +1112,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
         <v>0.1</v>
@@ -1165,7 +1123,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
         <v>0.2</v>
@@ -1176,7 +1134,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
         <v>0.75</v>
@@ -1187,7 +1145,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -1198,83 +1156,75 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" t="n">
         <v>50</v>
@@ -1282,12 +1232,12 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1295,11 +1245,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1312,12 +1262,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" t="n">
         <v>0.2</v>
@@ -1328,7 +1278,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="n">
         <v>0.05</v>
@@ -1336,7 +1286,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -1347,7 +1297,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="n">
         <v>10</v>
@@ -1358,7 +1308,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" t="n">
         <v>50</v>
@@ -1369,7 +1319,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
         <v>10</v>
@@ -1380,7 +1330,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" t="n">
         <v>0.2</v>
@@ -1391,7 +1341,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="n">
         <v>0.1</v>
@@ -1399,7 +1349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="n">
         <v>0.2</v>
@@ -1410,7 +1360,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" t="n">
         <v>0.333</v>
@@ -1421,7 +1371,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" t="n">
         <v>0.666</v>
@@ -1432,7 +1382,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="n">
         <v>0.05</v>
@@ -1440,7 +1390,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
         <v>0.05</v>
@@ -1448,7 +1398,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" t="n">
         <v>0.05</v>
@@ -1456,7 +1406,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" t="n">
         <v>0.05</v>
@@ -1464,7 +1414,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B18" t="n">
         <v>0.05</v>
@@ -1472,7 +1422,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" t="n">
         <v>0.05</v>
@@ -1480,7 +1430,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" t="n">
         <v>0.05</v>
@@ -1488,7 +1438,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" t="n">
         <v>0.1</v>
@@ -1496,7 +1446,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" t="n">
         <v>0.25</v>
@@ -1504,7 +1454,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="n">
         <v>0.1</v>
@@ -1512,7 +1462,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B24" t="n">
         <v>0.1</v>
@@ -1520,7 +1470,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" t="n">
         <v>0.1</v>
@@ -1528,7 +1478,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B26" t="n">
         <v>0.1</v>
@@ -1536,7 +1486,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" t="n">
         <v>0.2</v>
@@ -1544,7 +1494,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B28" t="n">
         <v>0.05</v>
@@ -1555,7 +1505,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" t="n">
         <v>0.1</v>
@@ -1563,7 +1513,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" t="n">
         <v>0.1</v>
@@ -1574,7 +1524,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1582,11 +1532,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1599,12 +1549,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1615,7 +1565,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1626,7 +1576,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1637,7 +1587,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1648,7 +1598,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1659,7 +1609,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1670,7 +1620,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1678,11 +1628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1690,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -1698,37 +1648,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" t="n">
         <v>48</v>
@@ -1736,7 +1686,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" t="n">
         <v>50</v>
@@ -1744,7 +1694,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -1752,7 +1702,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" t="n">
         <v>0.5</v>
@@ -1760,7 +1710,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" t="n">
         <v>0.8</v>
@@ -1768,7 +1718,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1776,6 +1726,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/docs/userguide/docs/ExampleOM/MyOM.xlsx
+++ b/docs/userguide/docs/ExampleOM/MyOM.xlsx
@@ -1,6 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
